--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.993799999999997</v>
+        <v>6.148299999999997</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.37140000000002</v>
+        <v>-21.49410000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.257700000000002</v>
+        <v>5.2986</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.996299999999998</v>
+        <v>-8.847599999999996</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.785200000000005</v>
+        <v>-8.571800000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.124900000000004</v>
+        <v>-8.229000000000003</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.70039999999999</v>
+        <v>-20.70979999999999</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.24720000000002</v>
+        <v>-21.18240000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>6.079099999999999</v>
+        <v>6.208499999999995</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.637400000000007</v>
+        <v>-8.539600000000005</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.31980000000001</v>
+        <v>-21.35380000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.215000000000007</v>
+        <v>-8.182400000000007</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.16560000000002</v>
+        <v>-21.36290000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.34920000000003</v>
+        <v>-22.33270000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
